--- a/Classifications.xlsx
+++ b/Classifications.xlsx
@@ -5,23 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerom\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerom\Documents\projects\paper\edtconf-dts-and-the-use-of-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA738540-3965-4375-9973-AE71C5947F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87ECAC2-6924-4C9A-B111-4DC94B53A025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="2820" windowWidth="27735" windowHeight="16830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="20490" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Our classification" sheetId="3" r:id="rId1"/>
     <sheet name="Case Study" sheetId="4" r:id="rId2"/>
+    <sheet name="References" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
   <si>
     <t>Classification</t>
   </si>
@@ -53,19 +54,7 @@
     <t>Extensibility</t>
   </si>
   <si>
-    <t>Yes
-No</t>
-  </si>
-  <si>
-    <t>Muss14, (CLUPIR via Metamodel)</t>
-  </si>
-  <si>
     <t>Formality</t>
-  </si>
-  <si>
-    <t>Informal
-Defined Syntax
-Defined Semantics</t>
   </si>
   <si>
     <t>SWEBoK, MDE4DT, UML, Muss14, Tao et al., CLUPIR</t>
@@ -82,9 +71,6 @@
 - continuous behavior model
 - discrete behavior model
 UI model(MontiGem)</t>
-  </si>
-  <si>
-    <t>Muss14, MDE4DT, (CLUPIR)</t>
   </si>
   <si>
     <t>not executable, Interpreted, Transformed</t>
@@ -112,9 +98,6 @@
 - Presentation</t>
   </si>
   <si>
-    <t>Muss14. SEBook, voelter2014towards(MPS)</t>
-  </si>
-  <si>
     <t>graphical, textual, projectional</t>
   </si>
   <si>
@@ -138,31 +121,13 @@
 Describes Interaction with the environment</t>
   </si>
   <si>
-    <t>tao et al.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Maybe as subpoints, maybe alone:
-geometric
-physical
-behavioral
-rule</t>
-  </si>
-  <si>
     <t>Domain</t>
   </si>
   <si>
-    <t>Manufactoring
-....</t>
-  </si>
-  <si>
     <t>Level of Abstraction</t>
   </si>
   <si>
     <t>Lifecycle</t>
-  </si>
-  <si>
-    <t>Model-Driven Engineering for Digital Twins: Opportunities and Challenges</t>
   </si>
   <si>
     <t>Lifecycle Phase</t>
@@ -289,34 +254,13 @@
 Level of abstraction: PSM(Conrete Machines)</t>
   </si>
   <si>
-    <t>Physical structure of the machines and the production line</t>
-  </si>
-  <si>
-    <t>CAD</t>
-  </si>
-  <si>
-    <t>Fischertechnik DT</t>
-  </si>
-  <si>
     <t>GUI Models</t>
   </si>
   <si>
     <t>GUI DSL</t>
   </si>
   <si>
-    <t>DT-Design, (Construction)?</t>
-  </si>
-  <si>
-    <t>Datastructure of the DT</t>
-  </si>
-  <si>
     <t>DT-Design</t>
-  </si>
-  <si>
-    <t>Additional constraints on the datastructure of the DT</t>
-  </si>
-  <si>
-    <t>C&amp;C Architecture for the connection between the DT and the PT</t>
   </si>
   <si>
     <t>DT-Design, DT-Operation</t>
@@ -426,6 +370,18 @@
 Level of abstraction: PIM(function only)</t>
   </si>
   <si>
+    <t>What is described</t>
+  </si>
+  <si>
+    <t>Modeling Language</t>
+  </si>
+  <si>
+    <t>Facets</t>
+  </si>
+  <si>
+    <t>CIM,PIM, PSM</t>
+  </si>
+  <si>
     <t>Extensibility: Yes (language composition)
 Type: UI Model
 Executability: Transformed (generator)
@@ -434,33 +390,129 @@
 Purpose: Prescriptive
 Modeled subject: describes software
 Tao: structural/data
-Domain: EIS
+Domain: Enterprise Information Systems (EIS)
 Level of abstraction: PIM</t>
   </si>
   <si>
-    <t>Lifecycle Übergänge</t>
-  </si>
-  <si>
-    <t>What is described</t>
-  </si>
-  <si>
-    <t>Modeling Language</t>
-  </si>
-  <si>
-    <t>Facets</t>
-  </si>
-  <si>
-    <t>Conceptualizing Digital Twins</t>
-  </si>
-  <si>
-    <t>CIM,PIM, PSM</t>
+    <t>Yes, No</t>
+  </si>
+  <si>
+    <t>Informal,
+Defined Syntax,
+Defined Semantics</t>
+  </si>
+  <si>
+    <t>• A - Agriculture, Forestry and Fishing
+• B - Mining and Quarrying
+• C - Manufacturing
+• D - Electricity, Gas, Steam and Air Conditioning Supply
+• E - Water Supply, Sewerage, Waste Management and Remediation
+Activities
+• F - Construction
+• G - Wholesale and Retail Trade; Repair of Motor Vehicles and
+Motorcycles
+• H - Transportation and Storage
+• I - Accommodation and Food Service Activities
+• J - Information and Communication
+• K - Financial and Insurance Activities,
+• L - Real Estate Activities
+• M - Professional, Scientific and Technical Activities
+• N - Administrative and Support Service Activities
+• O - Public Administration and Defense; Compulsory Social
+Security
+• P - Education
+• Q - Human Health and Social Work Activities
+• R - Arts, Entertainment and Recreation
+• S - Other Service Activities
+• T - Activities of Households as Employers; Undifferentiated
+Goods and Services Producing Activities of Households for Own
+Use
+• U - Activities of Extraterritorial Organizations and Bodies</t>
+  </si>
+  <si>
+    <t>Mus14</t>
+  </si>
+  <si>
+    <t>Clupir</t>
+  </si>
+  <si>
+    <t>Abbreviation</t>
+  </si>
+  <si>
+    <t>DOI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1007/978-3-319-11653-2_12 </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/ACCESS.2025.3567005</t>
+  </si>
+  <si>
+    <t>MDE4DT</t>
+  </si>
+  <si>
+    <t>SWEBoK</t>
+  </si>
+  <si>
+    <t>UML</t>
+  </si>
+  <si>
+    <t>voelter2014towards</t>
+  </si>
+  <si>
+    <t>Muss14. SEBook, voelter2014towards</t>
+  </si>
+  <si>
+    <t>Eramo22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1109/MS.2021.3130755 </t>
+  </si>
+  <si>
+    <t>Michael25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1002/sys.21815 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1109/52.805471 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1007/978-3-319-33933-7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1007/s10270-004-0061-2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1007/978-3-319-11245-9_3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1007/s10270-025-01264-7 </t>
+  </si>
+  <si>
+    <t>Muss14, MDE4DT, CLUPIR</t>
+  </si>
+  <si>
+    <t>Tao et al.</t>
+  </si>
+  <si>
+    <t>SEBook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sebokwiki.org/wiki/Types_of_Models </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.jmsy.2022.06.015 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.compind.2022.103763 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -522,15 +574,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,7 +613,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
@@ -562,10 +642,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -573,13 +654,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -796,199 +904,191 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="55.85546875" customWidth="1"/>
+    <col min="3" max="3" width="82.140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" s="18" customFormat="1">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="12.75">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="38.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="102">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="12.75">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="255">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12.75">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="38.25">
+      <c r="A8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="51">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="9" t="s">
+    <row r="10" spans="1:3" ht="331.5">
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="12.75">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="153">
+      <c r="A12" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C12" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
+    <row r="13" spans="1:3" ht="12.75">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="1:3" ht="12.75">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" spans="1:3" ht="12.75">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" spans="1:3" ht="12.75">
+      <c r="A16" s="4"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3"/>
-    <row r="19" spans="1:3"/>
-    <row r="20" spans="1:3"/>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6"/>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C16" s="14"/>
+    </row>
+    <row r="17" spans="1:1" ht="12.75"/>
+    <row r="18" spans="1:1" ht="12.75"/>
+    <row r="19" spans="1:1" ht="12.75"/>
+    <row r="20" spans="1:1" ht="12.75">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21" spans="1:1" ht="12.75">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" ht="12.75">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:1" ht="12.75">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:1" ht="12.75">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:1" ht="12.75">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:1" ht="12.75">
       <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1000,336 +1100,404 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" style="8" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="96.7109375" customWidth="1"/>
+    <col min="5" max="5" width="121.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:22" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+    </row>
+    <row r="2" spans="1:22" ht="145.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="140.25">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="140.25">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-    </row>
-    <row r="2" spans="1:22" ht="12.75">
-      <c r="A2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="5" spans="1:22" ht="140.25">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="12.75">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="6" spans="1:22" ht="140.25">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="12.75">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="7" spans="1:22" ht="140.25">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="140.25">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="140.25">
+      <c r="A9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="140.25">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="140.25">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="127.5">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D12" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="12.75">
-      <c r="A5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="12.75">
-      <c r="A6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="12.75">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="12.75">
-      <c r="A8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="12.75">
-      <c r="A9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="12.75">
-      <c r="A10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="12.75">
-      <c r="A11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="12.75">
-      <c r="A12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="12.75">
-      <c r="A13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="E12" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="12.75">
-      <c r="A14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="12.75">
-      <c r="A15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="12.75">
-      <c r="A16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="12.75">
-      <c r="A17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="12.75">
+    </row>
+    <row r="26" spans="1:1" ht="12.75">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" ht="12.75">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" ht="12.75">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" ht="12.75">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" ht="12.75">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1" ht="12.75">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="12.75">
+    <row r="32" spans="1:1" ht="12.75">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" ht="12.75">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" ht="12.75">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" ht="12.75">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" ht="12.75">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" ht="12.75">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="45" spans="1:1" ht="12.75">
-      <c r="A45" s="1" t="s">
-        <v>85</v>
-      </c>
+    <row r="40" spans="1:1" ht="12.75">
+      <c r="A40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80093E98-BDA9-483C-8A06-07344AF231FC}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="18" customFormat="1" ht="15.75">
+      <c r="A1" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{8D41E017-EEDC-49AB-B7EA-3AD235B8E4FF}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{0E7CA0ED-8ACF-4E66-B4F7-BBBC7B6276AF}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{BBCEB001-FCD8-4084-AC09-5F4341985186}"/>
+    <hyperlink ref="B12" r:id="rId4" xr:uid="{CD6862EA-C8AF-488A-938F-CD06853411CF}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{3FEE28BB-7FBC-4BB7-A2E7-571AB1AD205D}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{2705005D-3BD1-40C9-B17D-CABE53CC3858}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{6E46CCBE-2170-45D4-B359-5A9E1747D90C}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{779ACF95-A5EA-49EB-BA83-05ECA7FE5E5E}"/>
+    <hyperlink ref="B5" r:id="rId9" xr:uid="{2676FF2F-729A-4A1C-BE1C-C3B5E33A92C4}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{7C21FA6A-8315-459D-A598-19DB87291EE2}"/>
+    <hyperlink ref="B7" r:id="rId11" xr:uid="{CACAD176-8A1D-483B-8C42-7F475F72D285}"/>
+    <hyperlink ref="B8" r:id="rId12" xr:uid="{30C66F84-6AF4-44BB-8B3E-FFE313AFC3A8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Classifications.xlsx
+++ b/Classifications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerom\Documents\projects\paper\edtconf-dts-and-the-use-of-models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hellwig/projects/papers/edtconf-dts-and-the-use-of-models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87ECAC2-6924-4C9A-B111-4DC94B53A025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79346A23-7875-FF40-97C9-30E8E85014E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="20490" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20500" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Our classification" sheetId="3" r:id="rId1"/>
@@ -162,38 +162,12 @@
     <t>PT-Design, DT-Operation</t>
   </si>
   <si>
-    <t>Extensibility: Yes(Language composition)
-Formality: Defined Semantics(FOCUS)
-Type: Structure(Architecture)
-Executability: Transformed(generator)
-Aspects of DT: Digital Coupling(Physical Entity Sate), Tools(Analysis@Ops, Simulation@Ops, Presentation@Ops)
-Notation: textual
-Purpose: Prescriptive@Design, Descriptive@Operation
-Modeled subject: Hardware, Software, Interaction with the Environment
-Tao et al.: TODO
-Domain: Manufacturing
-Level of abstraction: PIM(function only)</t>
-  </si>
-  <si>
     <t>Base datastructure of the messages used in the functional architecture</t>
   </si>
   <si>
     <t>CD4Analysis</t>
   </si>
   <si>
-    <t>Extensibility: Yes(Language composition)
-Formality: Defined Semantics
-Type: Structure(Architecture)
-Executability: Transformed(generator)
-Aspects of DT: Digital Coupling(Physical Entity Sate), Tools(Analysis@Ops, Simulation@Ops, Presentation@Ops)
-Notation: textual
-Purpose: Prescriptive@Design, Descriptive@Operation
-Modeled subject: Hardware, Software, Interaction with the Environment
-Tao et al.: TODO
-Domain: Manufacturing
-Level of abstraction: PIM(function only)</t>
-  </si>
-  <si>
     <t>Additional constraints on the datastructure of the messages in the functional architecture</t>
   </si>
   <si>
@@ -203,55 +177,16 @@
     <t>PT-Design,DT-Operation</t>
   </si>
   <si>
-    <t>Extensibility: Yes(Language composition)
-Formality: Defined Semantics
-Type: Structure(Data model)
-Executability: Transformed(generator), Interpreted
-Aspects of DT:  TODO
-Notation: textual
-Purpose: Prescriptive@Design, Descriptive@Operation
-Modeled subject: Hardware, Software
-Tao et al.: TODO
-Domain: Manufacturing
-Level of abstraction: PSM(Input/output ports of machines)</t>
-  </si>
-  <si>
     <t>Statechart of the control software for individual machines</t>
   </si>
   <si>
     <t>MC Statechart</t>
   </si>
   <si>
-    <t>Extensibility: Yes(Language composition)
-Formality: Defined Semantics
-Type: Behaviour(Descrete)
-Executability: Transformed(generator)
-(TODO:Check) Aspects of DT: Digital Coupling(Physical Entity Sate), Tools(Analysis@Ops, Simulation@Ops, Presentation@Ops)
-Notation: textual
-Purpose: Prescriptive@Design, Descriptive@Operation
-Modeled subject: Hardware, Software, Interaction with the Environment
-Tao et al.: TODO
-Domain: Manufacturing
-Level of abstraction: PSM(Input/output ports of machines)</t>
-  </si>
-  <si>
     <t>BPMN of the manufactoring process</t>
   </si>
   <si>
     <t>BPMN</t>
-  </si>
-  <si>
-    <t>Extensibility: Yes(Language profile)
-Formality: Defined Syntax
-Type: Behaviour(Descrete)
-Executability: Interpreted
-Aspects of DT: TODO
-Notation: graphical
-Purpose: Prescriptive@Design, Descriptive@Operation
-Modeled subject: Hardware, Software, Interaction with the Environment
-Tao et al.: TODO
-Domain: Manufacturing
-Level of abstraction: PSM(Conrete Machines)</t>
   </si>
   <si>
     <t>GUI Models</t>
@@ -380,18 +315,6 @@
   </si>
   <si>
     <t>CIM,PIM, PSM</t>
-  </si>
-  <si>
-    <t>Extensibility: Yes (language composition)
-Type: UI Model
-Executability: Transformed (generator)
-Aspects of DT: User Interface
-Notation: textual
-Purpose: Prescriptive
-Modeled subject: describes software
-Tao: structural/data
-Domain: Enterprise Information Systems (EIS)
-Level of abstraction: PIM</t>
   </si>
   <si>
     <t>Yes, No</t>
@@ -507,12 +430,84 @@
   <si>
     <t xml:space="preserve">https://doi.org/10.1016/j.compind.2022.103763 </t>
   </si>
+  <si>
+    <t>Extensibility: Yes(Language composition)
+Formality: Defined Semantics(FOCUS)
+Type: Structure(Architecture)
+Executability: Transformed(generator)
+Aspects of DT: Digital Coupling(Communication), Tools(Analysis@Ops, Simulation@Ops, Presentation@Ops)
+Notation: textual
+Purpose: Prescriptive@Design, Descriptive@Operation
+Modeled subject: Hardware, Software, Interaction with the Environment
+Domain: Manufacturing
+Level of abstraction: PIM(function only)</t>
+  </si>
+  <si>
+    <t>Extensibility: Yes(Language composition)
+Formality: Defined Semantics
+Type: Structure(Architecture)
+Executability: Transformed(generator)
+Aspects of DT: Digital Coupling(Physical Entity Sate), Digital Representation(Data model), Tools(Analysis@Ops, Simulation@Ops, Presentation@Ops)
+Notation: textual
+Purpose: Descriptive@Design, Prescriptive@Operation
+Modeled subject: Hardware, Software, Interaction with the Environment
+Domain: Manufacturing
+Level of abstraction: CIM during initial analysis, PIM and PSM through evolution</t>
+  </si>
+  <si>
+    <t>Extensibility: Yes(Language composition)
+Formality: Defined Semantics
+Type: Structure(Data model)
+Executability: Transformed(generator), Interpreted
+Aspects of DT: Digital Representation(Data Model), Tools(Analysis, Simulation)
+Notation: textual
+Purpose: Prescriptive@Design, Descriptive@Operation
+Modeled subject: Hardware, Software
+Domain: Manufacturing
+Level of abstraction: PSM(Input/output ports of machines)</t>
+  </si>
+  <si>
+    <t>Extensibility: Yes(Language composition)
+Formality: Defined Semantics
+Type: Behaviour(Descrete)
+Executability: Transformed(generator)
+Aspects of DT: Digital Coupling(Physical Entity Sate), Digital Representation(Physical entity models), Tools(Analysis@Ops, Simulation@Ops, Presentation@Ops)
+Notation: textual
+Purpose: Prescriptive@Design, Descriptive@Operation
+Modeled subject: Hardware, Software, Interaction with the Environment
+Domain: Manufacturing
+Level of abstraction: PSM(Input/output ports of machines)</t>
+  </si>
+  <si>
+    <t>Extensibility: Yes(Language profile)
+Formality: Defined Syntax
+Type: Behaviour(Descrete)
+Executability: Interpreted
+Aspects of DT: Digital Coupling(Physical entity state, Communication, Twinning), Tools(Analysis, Simulation), Functional Output(Digital twin output)
+Notation: graphical
+Purpose: Prescriptive@Design, Descriptive@Operation
+Modeled subject: Hardware, Software, Interaction with the Environment,
+Domain: Manufacturing
+Level of abstraction: PSM(Conrete Machines)</t>
+  </si>
+  <si>
+    <t>Extensibility: Yes (language composition)
+Type: structure, behavior
+Executability: Transformed (generator)
+Aspects of DT: User Interface
+Notation: textual
+Purpose: Prescriptive
+Modeled subject: describes software
+Tao: structural/data
+Domain: Enterprise Information Systems (EIS)
+Level of abstraction: PIM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -603,6 +598,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -646,7 +648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -658,11 +660,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -685,10 +685,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -906,188 +909,188 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="82.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="50.5" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="82.1640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="18" customFormat="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:3" s="16" customFormat="1" ht="17">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12.75">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:3" ht="14">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="38.25">
+      <c r="C2" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="42">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="102">
+      <c r="C3" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="112">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12.75">
+    <row r="5" spans="1:3" ht="14">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="255">
+    <row r="6" spans="1:3" ht="280">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12.75">
+    <row r="7" spans="1:3" ht="14">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="38.25">
+    <row r="8" spans="1:3" ht="42">
       <c r="A8" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="51">
+    <row r="9" spans="1:3" ht="56">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="331.5">
+    <row r="10" spans="1:3" ht="358">
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="12.75">
+      <c r="C10" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="153">
+      <c r="C11" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="168">
       <c r="A12" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12.75">
+    <row r="13" spans="1:3" ht="13">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="13"/>
-    </row>
-    <row r="14" spans="1:3" ht="12.75">
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" ht="13">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="13"/>
-    </row>
-    <row r="15" spans="1:3" ht="12.75">
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" ht="13">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="13"/>
-    </row>
-    <row r="16" spans="1:3" ht="12.75">
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" ht="13">
       <c r="A16" s="4"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="14"/>
-    </row>
-    <row r="17" spans="1:1" ht="12.75"/>
-    <row r="18" spans="1:1" ht="12.75"/>
-    <row r="19" spans="1:1" ht="12.75"/>
-    <row r="20" spans="1:1" ht="12.75">
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:1" ht="13"/>
+    <row r="18" spans="1:1" ht="13"/>
+    <row r="19" spans="1:1" ht="13"/>
+    <row r="20" spans="1:1" ht="13">
       <c r="A20" s="6"/>
     </row>
-    <row r="21" spans="1:1" ht="12.75">
+    <row r="21" spans="1:1" ht="13">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" ht="12.75">
+    <row r="22" spans="1:1" ht="13">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" ht="12.75">
+    <row r="23" spans="1:1" ht="13">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" ht="12.75">
+    <row r="24" spans="1:1" ht="13">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" ht="12.75">
+    <row r="25" spans="1:1" ht="13">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" ht="12.75">
+    <row r="26" spans="1:1" ht="13">
       <c r="A26" s="1"/>
     </row>
   </sheetData>
@@ -1102,58 +1105,58 @@
   </sheetPr>
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="35.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="121.42578125" customWidth="1"/>
+    <col min="5" max="5" width="121.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="23" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:22" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
+      <c r="E1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
     </row>
     <row r="2" spans="1:22" ht="145.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1162,202 +1165,202 @@
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="140.25">
+      <c r="E2" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="140">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="140.25">
+      <c r="E3" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="140">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="140.25">
+      <c r="E4" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="154">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>40</v>
+      <c r="B5" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="140.25">
+      <c r="E5" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="140">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>43</v>
+      <c r="B6" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="154">
+      <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" ht="140.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="154">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="10" t="s">
+    </row>
+    <row r="9" spans="1:22" ht="154">
+      <c r="A9" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" ht="140.25">
-      <c r="A8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="140.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:22" ht="154">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="11" spans="1:22" ht="154">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="140.25">
-      <c r="A10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="140.25">
-      <c r="A11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="127.5">
+    </row>
+    <row r="12" spans="1:22" ht="140">
       <c r="A12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="12.75">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="13">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" ht="12.75">
+    <row r="27" spans="1:1" ht="13">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" ht="12.75">
+    <row r="28" spans="1:1" ht="13">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" ht="12.75">
+    <row r="29" spans="1:1" ht="13">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" ht="12.75">
+    <row r="30" spans="1:1" ht="13">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" ht="12.75">
+    <row r="31" spans="1:1" ht="13">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" ht="12.75">
+    <row r="32" spans="1:1" ht="13">
       <c r="A32" s="1"/>
     </row>
-    <row r="40" spans="1:1" ht="12.75">
+    <row r="40" spans="1:1" ht="13">
       <c r="A40" s="1"/>
     </row>
   </sheetData>
@@ -1373,114 +1376,114 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="18" customFormat="1" ht="15.75">
-      <c r="A1" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>79</v>
+    <row r="1" spans="1:2" s="16" customFormat="1" ht="16">
+      <c r="A1" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>80</v>
+        <v>70</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>81</v>
+        <v>71</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>91</v>
+        <v>77</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>95</v>
+        <v>76</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>92</v>
+        <v>78</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>100</v>
+        <v>91</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>101</v>
+      <c r="B8" s="13" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>94</v>
+        <v>79</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>90</v>
+      <c r="A12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>99</v>
+        <v>92</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
